--- a/dailybell_price_checker_app_fixed/final_price_slab_for_dailybell_retail_slab_generator.xlsx
+++ b/dailybell_price_checker_app_fixed/final_price_slab_for_dailybell_retail_slab_generator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabee\Downloads\Dailybell docs\Working\price scheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabee\Desktop\Priceslab adjust\new-beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C8260A-63F8-4FE8-9114-A5957617CA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1129DEB-18AC-4AE7-8203-7F556462B1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,19 +73,19 @@
     <t>goodlife 500 ml rs 36</t>
   </si>
   <si>
-    <t>milma special ghee 50ml ₹43</t>
-  </si>
-  <si>
-    <t>Milma special Ghee 100ml ₹79</t>
-  </si>
-  <si>
-    <t>Milma special Ghee 200ml ₹154</t>
-  </si>
-  <si>
-    <t>milma special ghee 500ml ₹370</t>
-  </si>
-  <si>
-    <t>milma special ghee 1Ltr ₹720</t>
+    <t>Milma special Ghee 200ml ₹145</t>
+  </si>
+  <si>
+    <t>Milma special Ghee 100ml ₹75</t>
+  </si>
+  <si>
+    <t>milma special ghee 50ml ₹41</t>
+  </si>
+  <si>
+    <t>milma special ghee 500ml ₹347</t>
+  </si>
+  <si>
+    <t>milma special ghee 1Ltr ₹675</t>
   </si>
 </sst>
 </file>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,7 +887,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>43</v>
@@ -899,7 +899,7 @@
         <v>100</v>
       </c>
       <c r="F24">
-        <v>37.15</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -916,12 +916,12 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>68.25</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>154</v>
@@ -933,7 +933,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>133.07</v>
+        <v>125.36</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -950,7 +950,7 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>319.7</v>
+        <v>301.18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>622.1</v>
+        <v>586.07000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/dailybell_price_checker_app_fixed/final_price_slab_for_dailybell_retail_slab_generator.xlsx
+++ b/dailybell_price_checker_app_fixed/final_price_slab_for_dailybell_retail_slab_generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabee\Desktop\Priceslab adjust\new-beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1129DEB-18AC-4AE7-8203-7F556462B1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD61E152-CBFF-4EBA-9E6E-750DF871EEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,12 +67,6 @@
     <t>₹4400 Milma SMP 10kg</t>
   </si>
   <si>
-    <t>goodlife 1 litre Rs70</t>
-  </si>
-  <si>
-    <t>goodlife 500 ml rs 36</t>
-  </si>
-  <si>
     <t>Milma special Ghee 200ml ₹145</t>
   </si>
   <si>
@@ -86,6 +80,12 @@
   </si>
   <si>
     <t>milma special ghee 1Ltr ₹675</t>
+  </si>
+  <si>
+    <t>goodlife 500 ml rs 35</t>
+  </si>
+  <si>
+    <t>goodlife 1 litre Rs68</t>
   </si>
 </sst>
 </file>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,10 +853,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -865,12 +865,12 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>63.5</v>
+        <v>62.29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>36</v>
@@ -882,15 +882,15 @@
         <v>24</v>
       </c>
       <c r="F23">
-        <v>32.880000000000003</v>
+        <v>32.06</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -938,10 +938,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>720</v>
+        <v>675</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
